--- a/pred_ohlcv/54_21/2019-10-27 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-17070.39221766773</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-15548.82961766773</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-15620.49221766773</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-15667.48461766773</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-15558.51901766773</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16351.43691766773</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17573.33691766773</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17727.50171766773</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-19599.58271766773</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19443.62841766773</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-19441.62841766773</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-19863.82321766773</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-19870.69451766773</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-25757.31501766773</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-25747.31501766773</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-44652.41781766772</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-44912.86751766771</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-48132.94301766771</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-48113.94301766771</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-48215.90061766771</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-44791.72051065619</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-44790.72051065619</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-43870.08401065619</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-44067.15421065619</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-61739.15803371261</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-68848.04543371261</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-68948.14773371261</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-62847.37213371261</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-64309.22893371261</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-65660.47837301096</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-64220.47837301096</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-64220.47837301096</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-64219.47837301096</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-64419.47837301096</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-64419.37837301096</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-64479.54397301096</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-63027.98195691613</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-63400.37135691613</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-63695.38205691613</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-63695.38205691613</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-63512.03915691612</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-63512.03915691612</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-64505.63790723058</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-64203.19100723058</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-64312.68160723057</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-64317.74000723058</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-64263.06760723057</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-64180.03920723057</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-70963.48969727008</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LINK ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-15558.41901766773</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-14926.43751766773</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-16359.50801766773</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-16351.43691766773</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-16599.17681766773</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-17681.16901766773</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17573.33691766773</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17727.50171766773</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-19599.58271766773</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-19443.62841766773</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-19441.62841766773</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-19863.82321766773</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-19870.69451766773</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-23915.69451766773</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-23914.69451766773</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-25747.31501766773</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-44652.41781766772</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-44912.86751766771</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-48132.94301766771</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-48113.94301766771</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-48214.90061766771</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-48215.90061766771</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-48219.90061766771</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-44791.72051065619</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-44790.72051065619</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-43870.08401065619</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-44067.15421065619</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-61739.15803371261</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-67640.83443371262</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-68848.04543371261</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-68948.14773371261</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-62847.37213371261</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-64309.22893371261</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-65660.47837301096</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-64220.47837301096</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-64220.47837301096</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-64219.47837301096</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-64419.47837301096</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-64419.37837301096</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-64479.54397301096</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-64476.54397301096</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-62988.30855691613</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-63027.98195691613</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-63400.37135691613</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-63695.38205691613</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-63695.38205691613</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-63512.03915691612</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-63512.03915691612</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-64660.47695691612</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-64977.43095691612</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-63954.15735691612</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-64505.63790723058</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-64203.19100723058</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-64312.68160723057</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-64317.74000723058</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-64263.06760723057</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-64180.03920723057</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-64302.96450723057</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-70963.48969727008</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-78704.28034026125</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
